--- a/信号文档.xlsx
+++ b/信号文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf65f9ffd9e9486/Hardware/QuantizationMac/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\QuantizationMac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="8_{A77F903E-FCA4-4B3C-ACAA-5B3A905FFCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D12412AA-CA51-4FFF-A63A-D6DB5167F4E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472E738-A2ED-46DF-955B-AFE742CE190F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15460" xr2:uid="{267ECF6D-B65A-428E-9965-7245B5092E7A}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{267ECF6D-B65A-428E-9965-7245B5092E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,20 +871,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6596BC-6A50-4AB3-8C4C-9A3B1B88E211}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="49.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -934,7 +934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -948,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -962,7 +962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -977,7 +977,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="98" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -991,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1003,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1067,14 +1067,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1312,6 +1312,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1319,16 +1329,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
